--- a/doc/Функциональные требования к системе.xlsx
+++ b/doc/Функциональные требования к системе.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_on_python\AnalyticsAIAgent\AnalyticsAIAgent\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{931CBDC4-75B9-40F2-8123-8F8116E44341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CC277B-4A28-4428-95C6-C91B0059482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="465" windowWidth="21105" windowHeight="10860" xr2:uid="{4002D4F2-26D7-4836-8D7F-1A0682F5CFFD}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="13763" xr2:uid="{4002D4F2-26D7-4836-8D7F-1A0682F5CFFD}"/>
   </bookViews>
   <sheets>
     <sheet name="table-cf98f957-fbec-4519-aed6-c" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>В ходе исполнения процесса система должна определять когда ей необходимо авторизоваться под другими данными, чтобы продолжить проверку накладных по оставшимся направлениям деятельности компании</t>
+  </si>
+  <si>
+    <t>FR-32</t>
+  </si>
+  <si>
+    <t>Система должна осуществлять поиск по альтернативной площадке, если не нашла накладную "07/" или "04/" соответственно на Челябинске и Новокузнецке (Альтернативными тут являются Курган и Новосибирск соответственно). По умолчанию альтернативная и основная площадки совпадают и в переключение в случае не нахождения данных по накладной не нуждаются.</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,6 +701,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -858,9 +876,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1238,16 +1262,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784450FA-D685-4C02-9F42-7A367A75BEA7}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.53125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1494,7 +1518,7 @@
       <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C18" t="s">
@@ -1508,7 +1532,7 @@
       <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C19" t="s">
@@ -1522,7 +1546,7 @@
       <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C20" t="s">
@@ -1536,7 +1560,7 @@
       <c r="A21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1544,7 +1568,7 @@
       <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1552,7 +1576,7 @@
       <c r="A23" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1560,7 +1584,7 @@
       <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1674,6 +1698,17 @@
       </c>
       <c r="D32" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
